--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.20182174202634</v>
+        <v>15363.16252666338</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.20182174202634</v>
+        <v>15363.16252666338</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55162.83812403873</v>
+        <v>3860744.718737084</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55162.83812403873</v>
+        <v>3860744.718737084</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494910643.681164</v>
+        <v>57751604.16013671</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13638.55634405955</v>
+        <v>1329686.202580236</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26688.77515967108</v>
+        <v>2557578.816904515</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39738.9939752826</v>
+        <v>3785471.431228796</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55371.49846233745</v>
+        <v>4811567.511836747</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69796.87078067896</v>
+        <v>5964605.486253728</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84208.60517454259</v>
+        <v>7118724.627571908</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98623.90320476987</v>
+        <v>8272938.324041602</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113040.1732314096</v>
+        <v>9427095.863018125</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128694.5478217371</v>
+        <v>10451306.21461207</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143124.2628197977</v>
+        <v>11604344.18902904</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157540.3398933804</v>
+        <v>12758463.33034722</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171956.4169669631</v>
+        <v>13912582.47166541</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186372.4940405458</v>
+        <v>15066701.6129836</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200802.2090386064</v>
+        <v>16219739.58740059</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218241.880423271</v>
+        <v>17014539.64038844</v>
       </c>
     </row>
   </sheetData>
